--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="H2">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="I2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="J2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N2">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P2">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q2">
-        <v>17.09084619959211</v>
+        <v>4.635246808752112</v>
       </c>
       <c r="R2">
-        <v>153.817615796329</v>
+        <v>41.71722127876901</v>
       </c>
       <c r="S2">
-        <v>0.0405454586691551</v>
+        <v>0.01050400940881854</v>
       </c>
       <c r="T2">
-        <v>0.0405454586691551</v>
+        <v>0.01050400940881855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="H3">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="I3">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="J3">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.013535</v>
       </c>
       <c r="O3">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P3">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q3">
-        <v>0.01865171575611111</v>
+        <v>0.009713448393888888</v>
       </c>
       <c r="R3">
-        <v>0.167865441805</v>
+        <v>0.08742103554500001</v>
       </c>
       <c r="S3">
-        <v>4.424838661974972E-05</v>
+        <v>2.201180595795514E-05</v>
       </c>
       <c r="T3">
-        <v>4.424838661974972E-05</v>
+        <v>2.201180595795515E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="H4">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="I4">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="J4">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N4">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O4">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P4">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q4">
-        <v>12.27953035604878</v>
+        <v>7.650790630319</v>
       </c>
       <c r="R4">
-        <v>110.515773204439</v>
+        <v>68.857115672871</v>
       </c>
       <c r="S4">
-        <v>0.02913133643082538</v>
+        <v>0.01733758310647689</v>
       </c>
       <c r="T4">
-        <v>0.02913133643082538</v>
+        <v>0.0173375831064769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="H5">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="I5">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="J5">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N5">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O5">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P5">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q5">
-        <v>55.48844785384332</v>
+        <v>32.93099204359322</v>
       </c>
       <c r="R5">
-        <v>499.3960306845899</v>
+        <v>296.378928392339</v>
       </c>
       <c r="S5">
-        <v>0.1316379857848856</v>
+        <v>0.07462546538287916</v>
       </c>
       <c r="T5">
-        <v>0.1316379857848856</v>
+        <v>0.07462546538287919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.013535</v>
       </c>
       <c r="I6">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="J6">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N6">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O6">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P6">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q6">
-        <v>0.01865171575611111</v>
+        <v>0.009713448393888888</v>
       </c>
       <c r="R6">
-        <v>0.167865441805</v>
+        <v>0.08742103554500001</v>
       </c>
       <c r="S6">
-        <v>4.424838661974972E-05</v>
+        <v>2.201180595795514E-05</v>
       </c>
       <c r="T6">
-        <v>4.424838661974972E-05</v>
+        <v>2.201180595795515E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.013535</v>
       </c>
       <c r="I7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="J7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.013535</v>
       </c>
       <c r="O7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P7">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q7">
         <v>2.035513611111111E-05</v>
@@ -880,10 +880,10 @@
         <v>0.000183196225</v>
       </c>
       <c r="S7">
-        <v>4.828949487110702E-08</v>
+        <v>4.612711038928576E-08</v>
       </c>
       <c r="T7">
-        <v>4.828949487110702E-08</v>
+        <v>4.612711038928578E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.013535</v>
       </c>
       <c r="I8">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="J8">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N8">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O8">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P8">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q8">
-        <v>0.01340099297277778</v>
+        <v>0.016032708295</v>
       </c>
       <c r="R8">
-        <v>0.120608936755</v>
+        <v>0.144294374655</v>
       </c>
       <c r="S8">
-        <v>3.1791837592943E-05</v>
+        <v>3.633198527024311E-05</v>
       </c>
       <c r="T8">
-        <v>3.1791837592943E-05</v>
+        <v>3.633198527024312E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.013535</v>
       </c>
       <c r="I9">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="J9">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N9">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O9">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P9">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q9">
-        <v>0.06055608628333332</v>
+        <v>0.06900894493277777</v>
       </c>
       <c r="R9">
-        <v>0.5450047765499999</v>
+        <v>0.6210805043950001</v>
       </c>
       <c r="S9">
-        <v>0.0001436601947553234</v>
+        <v>0.0001563823107537366</v>
       </c>
       <c r="T9">
-        <v>0.0001436601947553234</v>
+        <v>0.0001563823107537366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="H10">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="I10">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="J10">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N10">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O10">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P10">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q10">
-        <v>12.27953035604878</v>
+        <v>7.650790630319</v>
       </c>
       <c r="R10">
-        <v>110.515773204439</v>
+        <v>68.857115672871</v>
       </c>
       <c r="S10">
-        <v>0.02913133643082538</v>
+        <v>0.01733758310647689</v>
       </c>
       <c r="T10">
-        <v>0.02913133643082538</v>
+        <v>0.0173375831064769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="H11">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="I11">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="J11">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,22 +1116,22 @@
         <v>0.013535</v>
       </c>
       <c r="O11">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P11">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q11">
-        <v>0.01340099297277778</v>
+        <v>0.016032708295</v>
       </c>
       <c r="R11">
-        <v>0.120608936755</v>
+        <v>0.144294374655</v>
       </c>
       <c r="S11">
-        <v>3.1791837592943E-05</v>
+        <v>3.633198527024311E-05</v>
       </c>
       <c r="T11">
-        <v>3.1791837592943E-05</v>
+        <v>3.633198527024312E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="H12">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="I12">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="J12">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N12">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O12">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P12">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q12">
-        <v>8.822668228605444</v>
+        <v>12.628151139321</v>
       </c>
       <c r="R12">
-        <v>79.40401405744899</v>
+        <v>113.653360253889</v>
       </c>
       <c r="S12">
-        <v>0.02093045164862154</v>
+        <v>0.02861686202619296</v>
       </c>
       <c r="T12">
-        <v>0.02093045164862154</v>
+        <v>0.02861686202619297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="H13">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="I13">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="J13">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N13">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O13">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P13">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q13">
-        <v>39.86766201474333</v>
+        <v>54.354845765389</v>
       </c>
       <c r="R13">
-        <v>358.80895813269</v>
+        <v>489.193611888501</v>
       </c>
       <c r="S13">
-        <v>0.09458002392492414</v>
+        <v>0.1231744144144581</v>
       </c>
       <c r="T13">
-        <v>0.09458002392492414</v>
+        <v>0.1231744144144581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="H14">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="I14">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="J14">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.134107666666666</v>
+        <v>2.152962333333333</v>
       </c>
       <c r="N14">
-        <v>12.402323</v>
+        <v>6.458887000000001</v>
       </c>
       <c r="O14">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="P14">
-        <v>0.2013590292714859</v>
+        <v>0.1024890697041326</v>
       </c>
       <c r="Q14">
-        <v>55.48844785384332</v>
+        <v>32.93099204359322</v>
       </c>
       <c r="R14">
-        <v>499.3960306845899</v>
+        <v>296.378928392339</v>
       </c>
       <c r="S14">
-        <v>0.1316379857848856</v>
+        <v>0.07462546538287916</v>
       </c>
       <c r="T14">
-        <v>0.1316379857848856</v>
+        <v>0.07462546538287919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="H15">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="I15">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="J15">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,22 +1364,22 @@
         <v>0.013535</v>
       </c>
       <c r="O15">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923241</v>
       </c>
       <c r="P15">
-        <v>0.0002197487084628873</v>
+        <v>0.0002147722290923242</v>
       </c>
       <c r="Q15">
-        <v>0.06055608628333332</v>
+        <v>0.06900894493277777</v>
       </c>
       <c r="R15">
-        <v>0.5450047765499999</v>
+        <v>0.6210805043950001</v>
       </c>
       <c r="S15">
-        <v>0.0001436601947553234</v>
+        <v>0.0001563823107537366</v>
       </c>
       <c r="T15">
-        <v>0.0001436601947553234</v>
+        <v>0.0001563823107537366</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="H16">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="I16">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="J16">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.970297666666667</v>
+        <v>3.553611</v>
       </c>
       <c r="N16">
-        <v>8.910893</v>
+        <v>10.660833</v>
       </c>
       <c r="O16">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="P16">
-        <v>0.144673603841964</v>
+        <v>0.1691651915323982</v>
       </c>
       <c r="Q16">
-        <v>39.86766201474333</v>
+        <v>54.354845765389</v>
       </c>
       <c r="R16">
-        <v>358.80895813269</v>
+        <v>489.193611888501</v>
       </c>
       <c r="S16">
-        <v>0.09458002392492414</v>
+        <v>0.1231744144144581</v>
       </c>
       <c r="T16">
-        <v>0.09458002392492414</v>
+        <v>0.1231744144144581</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="H17">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="I17">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="J17">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.42211</v>
+        <v>15.29566566666667</v>
       </c>
       <c r="N17">
-        <v>40.26633</v>
+        <v>45.886997</v>
       </c>
       <c r="O17">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343768</v>
       </c>
       <c r="P17">
-        <v>0.6537476181780872</v>
+        <v>0.7281309665343769</v>
       </c>
       <c r="Q17">
-        <v>180.1530368520999</v>
+        <v>233.9573881864454</v>
       </c>
       <c r="R17">
-        <v>1621.3773316689</v>
+        <v>2105.616493678009</v>
       </c>
       <c r="S17">
-        <v>0.4273859482735222</v>
+        <v>0.5301747044262858</v>
       </c>
       <c r="T17">
-        <v>0.4273859482735222</v>
+        <v>0.5301747044262859</v>
       </c>
     </row>
   </sheetData>
